--- a/public/sample-format/Device-Offer.xlsx
+++ b/public/sample-format/Device-Offer.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\bl_cms\public\sample-format\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp2\htdocs\bl_cms\public\sample-format\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B4210F9-5789-44BE-BB8C-72CF30ACFFF3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F18E70E6-2250-47F2-89FF-FB63D1C2FA58}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="122">
   <si>
     <t>Brand</t>
   </si>
@@ -65,71 +63,357 @@
     <t>Apple</t>
   </si>
   <si>
-    <t>iPhone</t>
-  </si>
-  <si>
-    <t>9 GB</t>
-  </si>
-  <si>
-    <t>3GB per month (7 days validity)</t>
-  </si>
-  <si>
-    <t>For first three months</t>
-  </si>
-  <si>
-    <t>Up to 150 GB</t>
-  </si>
-  <si>
-    <t>100% bonus on purchasing 3 GB data (7 days validity)</t>
-  </si>
-  <si>
-    <t>CC001, CC002, CC003</t>
-  </si>
-  <si>
-    <t>Nokia</t>
-  </si>
-  <si>
-    <t>12 GB</t>
-  </si>
-  <si>
-    <t>3 GB per month (7 days validity)</t>
-  </si>
-  <si>
-    <t>For first four months</t>
-  </si>
-  <si>
-    <t>Up to 90 GB</t>
-  </si>
-  <si>
-    <t>Max 3 times per month</t>
-  </si>
-  <si>
-    <t>CC007, CC008, CC009, CC024, CC030</t>
-  </si>
-  <si>
     <t>Samsung</t>
   </si>
   <si>
-    <t>S10 plus</t>
-  </si>
-  <si>
-    <t>15 Gb</t>
-  </si>
-  <si>
-    <t>5 GB per month (7 days validity)</t>
-  </si>
-  <si>
-    <t>CC013, CC021</t>
+    <t>Vivo</t>
+  </si>
+  <si>
+    <t>vivo Y90</t>
+  </si>
+  <si>
+    <t>12 GB in 12 months</t>
+  </si>
+  <si>
+    <t>1GB/month (7 days validity)</t>
+  </si>
+  <si>
+    <t>For 12 months</t>
+  </si>
+  <si>
+    <t>200% Bonus on Pack Purchase</t>
+  </si>
+  <si>
+    <t>Dial *5000*49# &amp; get 6GB(4GB Generic+2GB 4G) @TK49 for 4 days or Dial *5000*799# &amp; get 4.5GB(3GB Generic+1.5GB 4G) @TK99 for 7 days</t>
+  </si>
+  <si>
+    <t>All Vivo authorized sales centers</t>
+  </si>
+  <si>
+    <t>vivo Y91C</t>
+  </si>
+  <si>
+    <t>vivo Y11</t>
+  </si>
+  <si>
+    <t>Dial *5000*799# &amp; get 4.5GB(3GB Generic+1.5GB 4G) @TK99 for 7 days or Dial *5000*249# &amp; get 9GB(6GB Generic+3GB 4G) @TK249 for 30 days</t>
+  </si>
+  <si>
+    <t>vivo Y12</t>
+  </si>
+  <si>
+    <t>vivo Y15</t>
+  </si>
+  <si>
+    <t>Dial *5000*799# &amp; get 4.5GB(3GB Generic+1.5GB 4G) @TK99 for 7 days or Dial *5000*599# &amp; get 21GB(14GB Generic+7GB 4G) @TK399 for 30 days</t>
+  </si>
+  <si>
+    <t>vivo Y19</t>
+  </si>
+  <si>
+    <t>vivo S1 6GB</t>
+  </si>
+  <si>
+    <t>vivo S1 Pro</t>
+  </si>
+  <si>
+    <t>itel &amp; Tecno</t>
+  </si>
+  <si>
+    <t>itel Alpha Lite</t>
+  </si>
+  <si>
+    <t>Dial *5000*36# &amp; get 2GB (1Gb &amp; get 1Gb Bonus) @TK36 for 4 days or Dial *5000*76# &amp; get 2GB (1Gb &amp; get 1Gb Bonus) @TK76 for 7 days</t>
+  </si>
+  <si>
+    <t>All iTel and Tecno authorized sales centers</t>
+  </si>
+  <si>
+    <t>Techno Pop2F</t>
+  </si>
+  <si>
+    <t>itel A25</t>
+  </si>
+  <si>
+    <t>Dial *5000*36# &amp; get 3GB [Buy 1GB &amp; get 2GB Bonus (1GB Generic+1GB 4G)] @TK36 for 4 days or Dial *5000*76# &amp; get 3GB [Buy 1GB &amp; get 2GB Bonus (1GB Generic+1GB 4G)] @TK76 for 7 days</t>
+  </si>
+  <si>
+    <t>itel A46 (2GB)</t>
+  </si>
+  <si>
+    <t>Dial *5000*49# &amp; get 6GB [Buy 2GB &amp; get 4GB Bonus (2GB Generic+2GB 4G)] @TK49 for 4 days or Dial *5000*799# &amp; get 4.5GB [Buy 1.5GB &amp; get 3GB Bonus (1.5GB Generic+1.5GB 4G)] @TK99 for 7 days</t>
+  </si>
+  <si>
+    <t>itel A55 LTE</t>
+  </si>
+  <si>
+    <t>itel Vision-1</t>
+  </si>
+  <si>
+    <t>itel S15 Pro</t>
+  </si>
+  <si>
+    <t>Techno SPARK Go (1GB)</t>
+  </si>
+  <si>
+    <t>Techno SPARK Go (2GB)</t>
+  </si>
+  <si>
+    <t>Techno SPARK 4 Air</t>
+  </si>
+  <si>
+    <t>Techno SPARK 4 Lite</t>
+  </si>
+  <si>
+    <t>Techno SPARK 4</t>
+  </si>
+  <si>
+    <t>Dial *5000*799# &amp; get 4.5GB [Buy 1.5GB &amp; get 3GB Bonus (1.5GB Generic+1.5GB 4G)] @TK99 for 7 days or Dial *5000*249# for 9GB [Buy 3GB &amp; get 6GB Bonus (3GB Generic+3GB 4G)] @TK249 for 30 days</t>
+  </si>
+  <si>
+    <t>Techno CAMON 12 Air</t>
+  </si>
+  <si>
+    <t>Xiaomi</t>
+  </si>
+  <si>
+    <t>Redmi 8A DUAL</t>
+  </si>
+  <si>
+    <t>21GB in 3 months and 12GB in 11 months</t>
+  </si>
+  <si>
+    <t>7GB/month (7 days validity)</t>
+  </si>
+  <si>
+    <t>For 3 months</t>
+  </si>
+  <si>
+    <t>Upto 150GB Bonus on Pack Purchase</t>
+  </si>
+  <si>
+    <t>Customer can also get up to 150 GB bonus for purchasing Pack @TK499 &amp; get 17GB (12+5GB Bonus) for 30days (Dial *5000*508#) or purchase pack @ TK129 &amp; get 8.5GB (6+2.5GB Bonus) for 7days (Dial *5000*577#)</t>
+  </si>
+  <si>
+    <t>30 times in 3 months</t>
+  </si>
+  <si>
+    <t>All Xiaomi authorized sales centers</t>
+  </si>
+  <si>
+    <t>Oppo</t>
+  </si>
+  <si>
+    <t>All Oppo handset</t>
+  </si>
+  <si>
+    <t>12GB in 3 months and
+12GB in 11 months</t>
+  </si>
+  <si>
+    <t>4GB/month (7 days validity)</t>
+  </si>
+  <si>
+    <t>All Oppo authorized sales centers</t>
+  </si>
+  <si>
+    <t>iphone 11</t>
+  </si>
+  <si>
+    <t>12GB in 12 months</t>
+  </si>
+  <si>
+    <t>1GB / month (7 days validity)</t>
+  </si>
+  <si>
+    <t>Dial *5000*799# for 4.5GB (3GB Generic+1.5GB 4G) @Tk. 99 for 7 days or Dial *5000*599# for 15GB (10GB Generic+5GB 4G) @Tk. 399 for 30 days for 30 days, for 1 year</t>
+  </si>
+  <si>
+    <t>Gadget &amp; gear stores</t>
+  </si>
+  <si>
+    <t>iphone 11 Pro</t>
+  </si>
+  <si>
+    <t>iphone 11 Pro Max</t>
+  </si>
+  <si>
+    <t>All Samsung handset</t>
+  </si>
+  <si>
+    <t>24GB to 33GB</t>
+  </si>
+  <si>
+    <t>4GB or 7GB/month (7 days validity)</t>
+  </si>
+  <si>
+    <t>All Samsung authorized sales centers</t>
+  </si>
+  <si>
+    <t>All Xiaomi handset</t>
+  </si>
+  <si>
+    <t>24GB in 12 months</t>
+  </si>
+  <si>
+    <t>200% bonus on selected pack</t>
+  </si>
+  <si>
+    <t>Huawei</t>
+  </si>
+  <si>
+    <t>All Huawei handset</t>
+  </si>
+  <si>
+    <t>All Huawei authorized sales centers</t>
+  </si>
+  <si>
+    <t>Redmi GO</t>
+  </si>
+  <si>
+    <t>Walton</t>
+  </si>
+  <si>
+    <t>WALTON PRIMO RX6 (4G)</t>
+  </si>
+  <si>
+    <t>12GB in 3 months</t>
+  </si>
+  <si>
+    <t>150GB bonus on selected pack</t>
+  </si>
+  <si>
+    <t>All Walton authorized sales centers</t>
+  </si>
+  <si>
+    <t>WALTON PRIMO S6 DUAL (4G)</t>
+  </si>
+  <si>
+    <t>WALTON PRIMO HM4i</t>
+  </si>
+  <si>
+    <t>6GB in 3 months</t>
+  </si>
+  <si>
+    <t>2GB/month (7 days validity)</t>
+  </si>
+  <si>
+    <t>Upto 45GB Bonus on Pack Purchase</t>
+  </si>
+  <si>
+    <t>45GB bonus on selected pack</t>
+  </si>
+  <si>
+    <t>WALTON PRIMO HM4+</t>
+  </si>
+  <si>
+    <t>9GB in 3 months</t>
+  </si>
+  <si>
+    <t>3GB/month (7 days validity)</t>
+  </si>
+  <si>
+    <t>Upto 90GB Bonus on Pack Purchase</t>
+  </si>
+  <si>
+    <t>90GB bonus on selected pack</t>
+  </si>
+  <si>
+    <t>WALTON PRIMO H7s (4G)</t>
+  </si>
+  <si>
+    <t>WALTON PRIMO H7</t>
+  </si>
+  <si>
+    <t>WALTON PRIMO GM3 (4G)</t>
+  </si>
+  <si>
+    <t>WALTON PRIMO GH7i</t>
+  </si>
+  <si>
+    <t>WALTON PRIMO GF7 (4G)</t>
+  </si>
+  <si>
+    <t>WALTON PRIMO G8i (4G)</t>
+  </si>
+  <si>
+    <t>WALTON PRIMO F8s</t>
+  </si>
+  <si>
+    <t>WALTON PRIMO F8</t>
+  </si>
+  <si>
+    <t>3GB in 3 months</t>
+  </si>
+  <si>
+    <t>WALTON PRIMO F7s</t>
+  </si>
+  <si>
+    <t>WALTON PRIMO EM2</t>
+  </si>
+  <si>
+    <t>WALTON PRIMO EF7</t>
+  </si>
+  <si>
+    <t>WALTON PRIMO E9</t>
+  </si>
+  <si>
+    <t>WALTON PRIMO D9</t>
+  </si>
+  <si>
+    <t>WALTON PRIMO EF8 (4G)</t>
+  </si>
+  <si>
+    <t>13 GB in 12 months</t>
+  </si>
+  <si>
+    <t>14 GB in 12 months</t>
+  </si>
+  <si>
+    <t>15 GB in 12 months</t>
+  </si>
+  <si>
+    <t>16 GB in 12 months</t>
+  </si>
+  <si>
+    <t>17 GB in 12 months</t>
+  </si>
+  <si>
+    <t>18 GB in 12 months</t>
+  </si>
+  <si>
+    <t>19 GB in 12 months</t>
+  </si>
+  <si>
+    <t>20 GB in 12 months</t>
+  </si>
+  <si>
+    <t>21 GB in 12 months</t>
+  </si>
+  <si>
+    <t>22 GB in 12 months</t>
+  </si>
+  <si>
+    <t>23 GB in 12 months</t>
+  </si>
+  <si>
+    <t>24 GB in 12 months</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -467,14 +751,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="21.77734375" customWidth="1"/>
     <col min="3" max="3" width="13.88671875" customWidth="1"/>
     <col min="4" max="4" width="31.44140625" style="3" customWidth="1"/>
     <col min="5" max="5" width="28.109375" customWidth="1"/>
@@ -513,88 +798,1400 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>114</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
+        <v>116</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" t="s">
+        <v>110</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" t="s">
+        <v>111</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" t="s">
+        <v>112</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" t="s">
+        <v>113</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" t="s">
+        <v>114</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" t="s">
+        <v>115</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" t="s">
+        <v>116</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" t="s">
+        <v>117</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" t="s">
+        <v>118</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" t="s">
+        <v>119</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" t="s">
+        <v>120</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" t="s">
+        <v>121</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" t="s">
+        <v>51</v>
+      </c>
+      <c r="F23" t="s">
+        <v>52</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E24" t="s">
+        <v>51</v>
+      </c>
+      <c r="F24" t="s">
+        <v>52</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B25" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E25" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" t="s">
+        <v>16</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" t="s">
+        <v>62</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E26" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" t="s">
+        <v>16</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" t="s">
+        <v>67</v>
+      </c>
+      <c r="C27" t="s">
+        <v>62</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E27" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" t="s">
+        <v>16</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3">
-        <v>7.2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>28</v>
+      <c r="B28" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" t="s">
+        <v>69</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E28" t="s">
+        <v>51</v>
+      </c>
+      <c r="F28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" t="s">
+        <v>72</v>
+      </c>
+      <c r="C29" t="s">
+        <v>73</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29" t="s">
+        <v>16</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>75</v>
+      </c>
+      <c r="B30" t="s">
+        <v>76</v>
+      </c>
+      <c r="C30" t="s">
+        <v>73</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E30" t="s">
+        <v>51</v>
+      </c>
+      <c r="F30" t="s">
+        <v>16</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>47</v>
+      </c>
+      <c r="B31" t="s">
+        <v>78</v>
+      </c>
+      <c r="C31" t="s">
+        <v>73</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E31" t="s">
+        <v>15</v>
+      </c>
+      <c r="F31" t="s">
+        <v>16</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>79</v>
+      </c>
+      <c r="B32" t="s">
+        <v>80</v>
+      </c>
+      <c r="C32" t="s">
+        <v>81</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E32" t="s">
+        <v>51</v>
+      </c>
+      <c r="F32" t="s">
+        <v>52</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>79</v>
+      </c>
+      <c r="B33" t="s">
+        <v>84</v>
+      </c>
+      <c r="C33" t="s">
+        <v>81</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E33" t="s">
+        <v>51</v>
+      </c>
+      <c r="F33" t="s">
+        <v>52</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>79</v>
+      </c>
+      <c r="B34" t="s">
+        <v>85</v>
+      </c>
+      <c r="C34" t="s">
+        <v>86</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E34" t="s">
+        <v>51</v>
+      </c>
+      <c r="F34" t="s">
+        <v>88</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>79</v>
+      </c>
+      <c r="B35" t="s">
+        <v>90</v>
+      </c>
+      <c r="C35" t="s">
+        <v>91</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E35" t="s">
+        <v>51</v>
+      </c>
+      <c r="F35" t="s">
+        <v>93</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>79</v>
+      </c>
+      <c r="B36" t="s">
+        <v>95</v>
+      </c>
+      <c r="C36" t="s">
+        <v>91</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E36" t="s">
+        <v>51</v>
+      </c>
+      <c r="F36" t="s">
+        <v>93</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>79</v>
+      </c>
+      <c r="B37" t="s">
+        <v>96</v>
+      </c>
+      <c r="C37" t="s">
+        <v>86</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E37" t="s">
+        <v>51</v>
+      </c>
+      <c r="F37" t="s">
+        <v>88</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>79</v>
+      </c>
+      <c r="B38" t="s">
+        <v>97</v>
+      </c>
+      <c r="C38" t="s">
+        <v>86</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E38" t="s">
+        <v>51</v>
+      </c>
+      <c r="F38" t="s">
+        <v>88</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>79</v>
+      </c>
+      <c r="B39" t="s">
+        <v>98</v>
+      </c>
+      <c r="C39" t="s">
+        <v>86</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E39" t="s">
+        <v>51</v>
+      </c>
+      <c r="F39" t="s">
+        <v>88</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>79</v>
+      </c>
+      <c r="B40" t="s">
+        <v>99</v>
+      </c>
+      <c r="C40" t="s">
+        <v>86</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E40" t="s">
+        <v>51</v>
+      </c>
+      <c r="F40" t="s">
+        <v>88</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>79</v>
+      </c>
+      <c r="B41" t="s">
+        <v>100</v>
+      </c>
+      <c r="C41" t="s">
+        <v>86</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E41" t="s">
+        <v>51</v>
+      </c>
+      <c r="F41" t="s">
+        <v>88</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>79</v>
+      </c>
+      <c r="B42" t="s">
+        <v>101</v>
+      </c>
+      <c r="C42" t="s">
+        <v>86</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E42" t="s">
+        <v>51</v>
+      </c>
+      <c r="F42" t="s">
+        <v>88</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>79</v>
+      </c>
+      <c r="B43" t="s">
+        <v>102</v>
+      </c>
+      <c r="C43" t="s">
+        <v>103</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E43" t="s">
+        <v>51</v>
+      </c>
+      <c r="F43" t="s">
+        <v>88</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>79</v>
+      </c>
+      <c r="B44" t="s">
+        <v>104</v>
+      </c>
+      <c r="C44" t="s">
+        <v>86</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E44" t="s">
+        <v>51</v>
+      </c>
+      <c r="F44" t="s">
+        <v>88</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>79</v>
+      </c>
+      <c r="B45" t="s">
+        <v>105</v>
+      </c>
+      <c r="C45" t="s">
+        <v>103</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E45" t="s">
+        <v>51</v>
+      </c>
+      <c r="F45" t="s">
+        <v>88</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>79</v>
+      </c>
+      <c r="B46" t="s">
+        <v>106</v>
+      </c>
+      <c r="C46" t="s">
+        <v>103</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E46" t="s">
+        <v>51</v>
+      </c>
+      <c r="F46" t="s">
+        <v>88</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>79</v>
+      </c>
+      <c r="B47" t="s">
+        <v>107</v>
+      </c>
+      <c r="C47" t="s">
+        <v>103</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E47" t="s">
+        <v>51</v>
+      </c>
+      <c r="F47" t="s">
+        <v>88</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>79</v>
+      </c>
+      <c r="B48" t="s">
+        <v>108</v>
+      </c>
+      <c r="C48" t="s">
+        <v>103</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E48" t="s">
+        <v>51</v>
+      </c>
+      <c r="F48" t="s">
+        <v>88</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>79</v>
+      </c>
+      <c r="B49" t="s">
+        <v>109</v>
+      </c>
+      <c r="C49" t="s">
+        <v>86</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E49" t="s">
+        <v>51</v>
+      </c>
+      <c r="F49" t="s">
+        <v>88</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
